--- a/water-fall/成果物一覧.xlsx
+++ b/water-fall/成果物一覧.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44A91BB-47B8-4325-9798-78C9D96177C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C61E4D-4B1D-48BB-9E1D-7BEF72956F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACEE0C1B-A7C6-4571-B800-9EDD5F868E9B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACEE0C1B-A7C6-4571-B800-9EDD5F868E9B}"/>
   </bookViews>
   <sheets>
     <sheet name="成果物一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="フォルダ構成" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
   <si>
     <t>成果物一覧</t>
     <rPh sb="0" eb="3">
@@ -768,6 +769,105 @@
     <rPh sb="26" eb="28">
       <t>ソウテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム名称/</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>├</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>│</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>└</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダ構成</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・各フェーズ毎にフォルダを準備してドキュメントを格納する。</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・システム全体とサブシステム毎にドキュメントを管理する。</t>
+    <rPh sb="5" eb="7">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_要件定義/</t>
+    <rPh sb="3" eb="7">
+      <t>ヨウケンテイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20_設計/</t>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30_テスト/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40_マニュアル/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50_残件管理/</t>
+    <rPh sb="3" eb="5">
+      <t>ザンケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90_サブシステム/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブシステムA/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブシステムB/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -775,7 +875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +899,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -887,7 +993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +1018,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -921,8 +1030,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2032,6 +2141,1337 @@
             <a:t> </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4333875" cy="6200775"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: メモ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB99BA88-959F-4627-B35C-E366688A51EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6524625" y="533400"/>
+          <a:ext cx="4333875" cy="6200775"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8191"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>成果物まとめ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>●</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>要件定義</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>全体像</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v1.0.pptx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能要件一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>30_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>業務フロー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>40_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ラフイメージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>50_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>非機能要件一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>●</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>設計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面・機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>全体</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10-01_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面・機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10-02_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面・機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク編集</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テーブル定義書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>30_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_CRUD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・パーミッション表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>●</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>30_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>システムテスト仕様書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザーテスト仕様書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>●</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>40_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マニュアル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>操作手順書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>20_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>インフラ構成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>_v1.0.xlsx </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>●</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>50_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>残件管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>残件一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236219</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右中かっこ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0335A35-53DF-1CB3-529D-706625656508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="762000"/>
+          <a:ext cx="236219" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>188594</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="右中かっこ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5525A360-B305-A11E-28A6-A2B17250604B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="3943350"/>
+          <a:ext cx="236219" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2051524" cy="325217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82A219B-94AC-7E61-3EFC-768EF5DEAA5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="1552575"/>
+          <a:ext cx="2051524" cy="325217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>システム全体に関するドキュメント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2223879" cy="325217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856A98ED-6FF5-DA24-84B3-49DAE2A81519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="4724400"/>
+          <a:ext cx="2223879" cy="325217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サブシステム単体に関するドキュメント</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2419,7 +3859,7 @@
       <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2432,7 +3872,7 @@
       <c r="E16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
@@ -2443,7 +3883,7 @@
       <c r="E17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
@@ -2454,7 +3894,7 @@
       <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
@@ -2465,7 +3905,7 @@
       <c r="E19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
@@ -2651,7 +4091,7 @@
       <c r="E33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2664,7 +4104,7 @@
       <c r="E34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2691,4 +4131,211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496529BD-0EAB-4976-92C1-C897E2BC7148}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BB11" sqref="BB11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="12"/>
+      <c r="G23" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/water-fall/成果物一覧.xlsx
+++ b/water-fall/成果物一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C61E4D-4B1D-48BB-9E1D-7BEF72956F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51BEE92-A785-46F2-B441-B9E01C0F2B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACEE0C1B-A7C6-4571-B800-9EDD5F868E9B}"/>
   </bookViews>
@@ -575,16 +575,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>30_タスク管理システム_業務フロー_v1.0.xlsx</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ギョウム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20_タスク管理システム_機能要件一覧_v1.0.xlsx</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
@@ -601,26 +591,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※別ファイルで準備 or 10_タスク管理システム_構想・全体像_v1.0.pptx に含める など</t>
-    <rPh sb="1" eb="2">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40_タスク管理システム_ラフイメージ_v1.0.xlsx</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>50_タスク管理システム_非機能要件一覧_v1.0.xlsx</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
@@ -640,13 +610,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全体とワークセット別にファイルを準備する。
-10_タスク管理システム_画面・機能_全体_v1.0.xlsx
-10-01_タスク管理システム_画面・機能_ユーザー登録_v1.0.xlsx
-10-02_タスク管理システム_画面・機能_タスク編集_v1.0.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>30_タスク管理システム_CRUD・パーミッション表_v1.0.xlsx</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
@@ -868,6 +831,46 @@
   </si>
   <si>
     <t>サブシステムB/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30_タスク管理システム_行動シナリオ_v1.0.xlsx</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※別ファイルで準備 or 10_タスク管理システム_全体像_v1.0.pptx に含める など</t>
+    <rPh sb="1" eb="2">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体とワークセット別にファイルを準備する。
+10_タスク管理システム_画面・機能_全体_v1.0.xlsx
+10-01_タスク管理システム_画面・機能_W010_ユーザー登録_v1.0.xlsx
+10-02_タスク管理システム_画面・機能_W020_タスク作成_v1.0.xlsx</t>
+    <rPh sb="129" eb="131">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40_タスク管理システム_ラフイメージ_v1.0.pptx</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1021,6 +1024,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1029,9 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,7 +1062,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4333875" cy="6200775"/>
+    <xdr:ext cx="5086351" cy="6200775"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="四角形: メモ 2">
@@ -1074,7 +1077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12896849" y="542925"/>
-          <a:ext cx="4333875" cy="6200775"/>
+          <a:ext cx="5086351" cy="6200775"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -1319,7 +1322,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>業務フロー</a:t>
+            <a:t>行動シナリオ</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -1411,7 +1414,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
+            <a:t>_v1.0.pptx</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -1570,7 +1573,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_</a:t>
+            <a:t>_W010_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1605,11 +1608,11 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_</a:t>
+            <a:t>_W020_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク編集</a:t>
+            <a:t>タスク作成</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -2151,1100 +2154,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4333875" cy="6200775"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形: メモ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB99BA88-959F-4627-B35C-E366688A51EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6524625" y="533400"/>
-          <a:ext cx="4333875" cy="6200775"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 8191"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>成果物まとめ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>●</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>10_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>要件定義</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>10_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>全体像</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.pptx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>20_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>機能要件一覧</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>30_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>業務フロー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>40_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ラフイメージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>50_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>非機能要件一覧</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>●</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>20_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>設計</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>10_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面・機能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>全体</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>10-01_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面・機能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザー登録</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>10-02_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面・機能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク編集</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>20_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>テーブル定義書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>30_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_CRUD</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・パーミッション表</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>●</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>30_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>テスト</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>10_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>システムテスト仕様書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>20_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ユーザーテスト仕様書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>●</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>40_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>マニュアル</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>10_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>操作手順書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>20_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>インフラ構成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>_v1.0.xlsx </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>●</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>50_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>残件管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>10_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>残件一覧</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -3661,7 +2570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FC3F2E-6D7A-4738-BC6D-28346292A92E}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3692,7 +2603,7 @@
         <v>50</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3709,7 +2620,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3750,7 +2661,7 @@
         <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3763,7 +2674,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3802,7 +2713,7 @@
         <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3817,7 +2728,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3830,7 +2741,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3843,7 +2754,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3859,8 +2770,8 @@
       <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>64</v>
+      <c r="F15" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3872,7 +2783,7 @@
       <c r="E16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
@@ -3883,7 +2794,7 @@
       <c r="E17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
@@ -3894,7 +2805,7 @@
       <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
@@ -3905,7 +2816,7 @@
       <c r="E19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
@@ -3917,7 +2828,7 @@
         <v>55</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -3930,7 +2841,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -3958,7 +2869,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -4060,7 +2971,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -4075,7 +2986,7 @@
         <v>55</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -4092,20 +3003,20 @@
         <v>53</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -4120,7 +3031,7 @@
         <v>54</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4138,199 +3049,199 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BB11" sqref="BB11"/>
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>78</v>
+      <c r="C7" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
-        <v>77</v>
+      <c r="C8" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="D8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="12" t="s">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" t="s">
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G27" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G28" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G29" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G30" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G31" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G32" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/water-fall/成果物一覧.xlsx
+++ b/water-fall/成果物一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51BEE92-A785-46F2-B441-B9E01C0F2B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD093BB-1C48-4A15-8AD1-CF3698C1188C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACEE0C1B-A7C6-4571-B800-9EDD5F868E9B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{ACEE0C1B-A7C6-4571-B800-9EDD5F868E9B}"/>
   </bookViews>
   <sheets>
     <sheet name="成果物一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="94">
   <si>
     <t>成果物一覧</t>
     <rPh sb="0" eb="3">
@@ -610,42 +610,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>30_タスク管理システム_CRUD・パーミッション表_v1.0.xlsx</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20_タスク管理システム_テーブル定義書_v1.0.xlsx</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※別ファイルで準備 or 20_タスク管理システム_テーブル定義書_v1.0.xlsx に含める など</t>
-    <rPh sb="1" eb="2">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10_タスク管理システム_システムテスト仕様書_v1.0.xlsx</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
@@ -857,19 +821,85 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全体とワークセット別にファイルを準備する。
-10_タスク管理システム_画面・機能_全体_v1.0.xlsx
-10-01_タスク管理システム_画面・機能_W010_ユーザー登録_v1.0.xlsx
-10-02_タスク管理システム_画面・機能_W020_タスク作成_v1.0.xlsx</t>
-    <rPh sb="129" eb="131">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>40_タスク管理システム_ラフイメージ_v1.0.pptx</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体とワークセット別にファイルを準備する。
+10_タスク管理システム_画面・機能_全体_v1.0.xlsx
+20_タスク管理システム_画面・機能_W010_ユーザー登録_v1.0.xlsx
+20_タスク管理システム_画面・機能_W020_タスク作成_v1.0.xlsx</t>
+    <rPh sb="123" eb="125">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30_タスク管理システム_テーブル定義書_v1.0.xlsx</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40_タスク管理システム_CRUD・パーミッション表_v1.0.xlsx</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※別ファイルで準備 or 30_タスク管理システム_テーブル定義書_v1.0.xlsx に含める など</t>
+    <rPh sb="1" eb="2">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新: 2024/07/02 XXX</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成: 2024/06/30 XXX</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※必要に応じてテスト仕様書を準備</t>
+    <rPh sb="1" eb="3">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュンビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -919,13 +949,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,7 +1026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,16 +1039,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1035,6 +1062,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,7 +1092,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5086351" cy="6200775"/>
@@ -1557,7 +1590,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>10-01_</a:t>
+            <a:t>20_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1592,7 +1625,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>10-02_</a:t>
+            <a:t>20_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1643,7 +1676,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>20_</a:t>
+            <a:t>30_</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -1718,7 +1751,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>30_</a:t>
+            <a:t>40_</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -2300,17 +2333,17 @@
         <a:ln/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
         </a:lnRef>
-        <a:fillRef idx="2">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2361,14 +2394,14 @@
         <a:lnRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="2">
+        <a:fillRef idx="3">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2390,9 +2423,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="クォータブル">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="クォータブル">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2400,34 +2433,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="212121"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="636363"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="00C6BB"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="6FEBA0"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="B6DF5E"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="EFB251"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="EF755F"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="ED515C"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="8F8F8F"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Meiryo UI">
@@ -2442,7 +2475,7 @@
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="クォータブル">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2451,52 +2484,76 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="90000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:duotone>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
+                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="98000"/>
-                <a:lumMod val="98000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
-            </a:duotone>
-          </a:blip>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -2508,11 +2565,11 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:innerShdw blurRad="63500" dist="25400" dir="13500000">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="75000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
-            </a:innerShdw>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2520,35 +2577,35 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="84000"/>
-                <a:shade val="84000"/>
-                <a:lumMod val="90000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="84000"/>
-                <a:shade val="90000"/>
-                <a:satMod val="120000"/>
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -2556,11 +2613,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Quotable" id="{39EC5628-30ED-4578-ACD8-9820EDB8E15A}" vid="{6F3559E9-1A4C-49D8-94D4-F41003531C49}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2568,20 +2645,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FC3F2E-6D7A-4738-BC6D-28346292A92E}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="64.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
@@ -2589,60 +2664,57 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="F3" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="F4" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>55</v>
@@ -2652,49 +2724,49 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>55</v>
@@ -2704,190 +2776,192 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>56</v>
@@ -2895,10 +2969,10 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>56</v>
@@ -2906,10 +2980,10 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>56</v>
@@ -2917,14 +2991,10 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>56</v>
@@ -2932,12 +3002,14 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="4" t="s">
-        <v>11</v>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>56</v>
@@ -2945,12 +3017,12 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="4" t="s">
-        <v>12</v>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>56</v>
@@ -2958,85 +3030,100 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F16:F20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3048,200 +3135,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496529BD-0EAB-4976-92C1-C897E2BC7148}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="9"/>
-      <c r="G23" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G27" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G29" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G30" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G31" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G32" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/water-fall/成果物一覧.xlsx
+++ b/water-fall/成果物一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD093BB-1C48-4A15-8AD1-CF3698C1188C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA080D-C35A-401C-A54A-4FABF5D07ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{ACEE0C1B-A7C6-4571-B800-9EDD5F868E9B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{ACEE0C1B-A7C6-4571-B800-9EDD5F868E9B}"/>
   </bookViews>
   <sheets>
     <sheet name="成果物一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
   <si>
     <t>成果物一覧</t>
     <rPh sb="0" eb="3">
@@ -485,16 +485,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残件一覧</t>
-    <rPh sb="0" eb="2">
-      <t>ザンケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システム本体</t>
     <rPh sb="4" eb="6">
       <t>ホンタイ</t>
@@ -643,19 +633,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10_タスク管理システム_残件一覧_v1.0.xlsx</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ザンケン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10_タスク管理システム_全体像_v1.0.pptx</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
@@ -828,78 +805,121 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>30_タスク管理システム_テーブル定義書_v1.0.xlsx</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40_タスク管理システム_CRUD・パーミッション表_v1.0.xlsx</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※別ファイルで準備 or 30_タスク管理システム_テーブル定義書_v1.0.xlsx に含める など</t>
+    <rPh sb="1" eb="2">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成: 2024/06/30 XXX</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※必要に応じてテスト仕様書を準備</t>
+    <rPh sb="1" eb="3">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新: 2024/07/03 XXX</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90_タスク管理システム_課題管理表.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_タスク管理システム_残件管理表.xlsx</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ザンケン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カンリヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残件管理表</t>
+    <rPh sb="0" eb="2">
+      <t>ザンケン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カンリヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題管理表</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カンリヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>全体とワークセット別にファイルを準備する。
 10_タスク管理システム_画面・機能_全体_v1.0.xlsx
 20_タスク管理システム_画面・機能_W010_ユーザー登録_v1.0.xlsx
-20_タスク管理システム_画面・機能_W020_タスク作成_v1.0.xlsx</t>
+20_タスク管理システム_画面・機能_W020_タスク作成・変更・削除_v1.0.xlsx</t>
     <rPh sb="123" eb="125">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30_タスク管理システム_テーブル定義書_v1.0.xlsx</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40_タスク管理システム_CRUD・パーミッション表_v1.0.xlsx</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※別ファイルで準備 or 30_タスク管理システム_テーブル定義書_v1.0.xlsx に含める など</t>
-    <rPh sb="1" eb="2">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新: 2024/07/02 XXX</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成: 2024/06/30 XXX</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※必要に応じてテスト仕様書を準備</t>
-    <rPh sb="1" eb="3">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジュンビ</t>
+    <rPh sb="126" eb="128">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -960,7 +980,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1020,13 +1040,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,6 +1096,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1062,12 +1119,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1525,6 +1576,312 @@
             <a:rPr lang="en-US" altLang="ja-JP"/>
             <a:t> </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>90_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>課題管理表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>●</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>設計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面・機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>全体</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面・機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_W010_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面・機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_W020_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク作成・変更・削除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>30_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テーブル定義書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>40_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_CRUD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・パーミッション表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
@@ -1539,11 +1896,11 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>20_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>設計</a:t>
+            <a:t>30_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テスト</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1554,33 +1911,70 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>10_</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>タスク管理システム</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>_</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面・機能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>全体</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>システムテスト仕様書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>_v1.0.xlsx</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1589,72 +1983,42 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>20_</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>タスク管理システム</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>_</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面・機能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_W010_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザー登録</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>20_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面・機能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_W020_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク作成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
@@ -1664,130 +2028,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>30_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>テーブル定義書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>40_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_CRUD</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・パーミッション表</a:t>
+            <a:t>ユーザーテスト仕様書</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -1819,11 +2060,11 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>30_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>テスト</a:t>
+            <a:t>40_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マニュアル</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1879,7 +2120,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>システムテスト仕様書</a:t>
+            <a:t>操作手順書</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -1893,81 +2134,32 @@
             </a:rPr>
             <a:t>_v1.0.xlsx</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
             <a:t>20_</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
             <a:t>タスク管理システム</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
             <a:t>_</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ユーザーテスト仕様書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>インフラ構成</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
+            <a:t>_v1.0.xlsx </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1983,11 +2175,11 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>40_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>マニュアル</a:t>
+            <a:t>50_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>残件管理</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2043,7 +2235,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>操作手順書</a:t>
+            <a:t>残件管理表</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -2055,122 +2247,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>20_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>インフラ構成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>_v1.0.xlsx </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>●</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>50_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>残件管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>10_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>残件一覧</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
+            <a:t>.xlsx</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -2645,11 +2722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FC3F2E-6D7A-4738-BC6D-28346292A92E}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -2659,39 +2736,39 @@
     <col min="6" max="6" width="64.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F2" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F3" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F2" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F3" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2702,13 +2779,13 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -2717,91 +2794,91 @@
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="5"/>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -2810,320 +2887,333 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="5"/>
+      <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="5"/>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="6"/>
+      <c r="C32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="6"/>
+      <c r="C34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="F35" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="3" t="s">
-        <v>58</v>
-      </c>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>64</v>
+      <c r="F36" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="6"/>
+      <c r="C37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="F17:F21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3137,196 +3227,196 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C7" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C9" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C11" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C13" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C15" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="E19" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="E20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="E21" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="E22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E23" s="8"/>
       <c r="G23" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G24" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G25" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G27" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" t="s">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G29" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G27" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G28" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" t="s">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G31" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G29" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G30" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G31" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G32" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/water-fall/成果物一覧.xlsx
+++ b/water-fall/成果物一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA080D-C35A-401C-A54A-4FABF5D07ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CDC384-9142-40B8-9CB9-3E3A5E9CAB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{ACEE0C1B-A7C6-4571-B800-9EDD5F868E9B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{ACEE0C1B-A7C6-4571-B800-9EDD5F868E9B}"/>
   </bookViews>
   <sheets>
     <sheet name="成果物一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="111">
   <si>
     <t>成果物一覧</t>
     <rPh sb="0" eb="3">
@@ -461,13 +461,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト仕様書（ユーザーテスト）</t>
-    <rPh sb="3" eb="6">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リリース準備</t>
     <rPh sb="4" eb="6">
       <t>ジュンビ</t>
@@ -643,23 +636,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>☆インフラ構成</t>
-    <rPh sb="5" eb="7">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20_タスク管理システム_インフラ構成_v1.0.xlsx</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>e.g. 成果物ファイル（タスク管理システムの開発を想定）</t>
     <rPh sb="5" eb="8">
       <t>セイカブツ</t>
@@ -818,16 +794,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>40_タスク管理システム_CRUD・パーミッション表_v1.0.xlsx</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※別ファイルで準備 or 30_タスク管理システム_テーブル定義書_v1.0.xlsx に含める など</t>
     <rPh sb="1" eb="2">
       <t>ベツ</t>
@@ -864,17 +830,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新: 2024/07/03 XXX</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90_タスク管理システム_課題管理表.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10_タスク管理システム_残件管理表.xlsx</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
@@ -898,28 +853,241 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>課題管理表</t>
+    <t>全体とワークセット別にファイルを準備する。
+10_タスク管理システム_画面一覧・遷移図_v1.0.xlsx
+20_タスク管理システム_画面・機能_W010_ユーザー登録_v1.0.xlsx
+20_タスク管理システム_画面・機能_W020_タスク作成・変更・削除_v1.0.xlsx</t>
+    <rPh sb="38" eb="40">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>センイズ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40_タスク管理システム_パーミッション表_v1.0.xlsx</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新: 2024/07/06 XXX</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題管理表（技術検証含む）</t>
     <rPh sb="0" eb="2">
       <t>カダイ</t>
     </rPh>
     <rPh sb="2" eb="5">
       <t>カンリヒョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全体とワークセット別にファイルを準備する。
-10_タスク管理システム_画面・機能_全体_v1.0.xlsx
-20_タスク管理システム_画面・機能_W010_ユーザー登録_v1.0.xlsx
-20_タスク管理システム_画面・機能_W020_タスク作成・変更・削除_v1.0.xlsx</t>
-    <rPh sb="123" eb="125">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>サクジョ</t>
+    <rPh sb="6" eb="8">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆帳票一覧</t>
+    <rPh sb="1" eb="3">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆バッチ処理一覧</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆外部インターフェース一覧</t>
+    <rPh sb="1" eb="3">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆帳票レイアウト</t>
+    <rPh sb="1" eb="3">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆外部インターフェース定義書</t>
+    <rPh sb="1" eb="3">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>テイギショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆ハードウェア構成図</t>
+    <rPh sb="7" eb="10">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆ソフトウェア構成図</t>
+    <rPh sb="7" eb="10">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆ネットワーク構成図</t>
+    <rPh sb="7" eb="10">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク管理システム_課題管理表.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆テスト仕様書（ユーザーテスト）</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60-1_タスク管理システム_ハードウェア構成図_v1.0.xlsx</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60-2_タスク管理システム_ソフトウェア構成図_v1.0.xlsx</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60-3_タスク管理システム_ネットワーク構成図_v1.0.xlsx</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70_タスク管理システム_帳票一覧_v1.0.xlsx</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80_タスク管理システム_バッチ処理一覧_v1.0.xlsx</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90_タスク管理システム_外部インターフェース一覧_v1.0.xlsx</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※状況により多種多様</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>タシュタヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50_タスク管理システム_帳票レイアウト_v1.0.xlsx</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60_タスク管理システム_外部インターフェース定義書_v1.0.xlsx</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>テイギショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -980,7 +1148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1062,13 +1230,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,6 +1297,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1146,7 +1326,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5086351" cy="6200775"/>
+    <xdr:ext cx="4845365" cy="7909457"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="四角形: メモ 2">
@@ -1160,8 +1340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12896849" y="542925"/>
-          <a:ext cx="5086351" cy="6200775"/>
+          <a:off x="12918700" y="745191"/>
+          <a:ext cx="4845365" cy="7909457"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -1185,7 +1365,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
-          <a:noAutofit/>
+          <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -1580,16 +1760,170 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>60-1_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ハードウェア構成図</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>60-2_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ソフトウェア構成図</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>60-3_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ネットワーク構成図</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>70_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>帳票一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>80_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>バッチ処理一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>90_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>外部インターフェース一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>_v1.0.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>90_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク管理システム</a:t>
+            <a:t>・タスク管理システム</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -1644,15 +1978,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面・機能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>全体</a:t>
+            <a:t>画面一覧・遷移図</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -1852,7 +2178,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>_CRUD</a:t>
+            <a:t>_</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -1864,7 +2190,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・パーミッション表</a:t>
+            <a:t>パーミッション表</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -2075,6 +2401,22 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク管理システム</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
@@ -2084,7 +2426,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>10_</a:t>
+            <a:t>_</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -2096,7 +2438,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>タスク管理システム</a:t>
+            <a:t>操作手順書</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -2108,60 +2450,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>操作手順書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>_v1.0.xlsx</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>20_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>インフラ構成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>_v1.0.xlsx </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2190,15 +2480,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>10_</a:t>
           </a:r>
           <a:r>
@@ -2722,11 +3004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FC3F2E-6D7A-4738-BC6D-28346292A92E}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -2736,22 +3020,22 @@
     <col min="6" max="6" width="64.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F2" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2762,13 +3046,13 @@
         <v>24</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2779,13 +3063,13 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -2794,91 +3078,91 @@
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -2887,333 +3171,436 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B18" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
-      <c r="C31" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C31" s="5"/>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="6"/>
-      <c r="C32" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>14</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="6"/>
-      <c r="C34" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F36" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
-      <c r="C37" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="C37" s="6"/>
       <c r="D37" s="2" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+      <c r="C42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>92</v>
+      <c r="F42" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="F23:F27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3227,196 +3614,196 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C7" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C9" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C11" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C13" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C15" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="E19" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="E20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="E21" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="E22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="8"/>
       <c r="G23" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G24" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" t="s">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/water-fall/成果物一覧.xlsx
+++ b/water-fall/成果物一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CDC384-9142-40B8-9CB9-3E3A5E9CAB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FCFEDB-62A9-46E3-9843-B4CBD173912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{ACEE0C1B-A7C6-4571-B800-9EDD5F868E9B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="124">
   <si>
     <t>成果物一覧</t>
     <rPh sb="0" eb="3">
@@ -379,13 +379,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>☆CRUDマトリックス表</t>
-    <rPh sb="11" eb="12">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>☆パーミッション表</t>
     <rPh sb="8" eb="9">
       <t>ヒョウ</t>
@@ -774,13 +767,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>40_タスク管理システム_ラフイメージ_v1.0.pptx</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>30_タスク管理システム_テーブル定義書_v1.0.xlsx</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
@@ -853,38 +839,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全体とワークセット別にファイルを準備する。
-10_タスク管理システム_画面一覧・遷移図_v1.0.xlsx
-20_タスク管理システム_画面・機能_W010_ユーザー登録_v1.0.xlsx
-20_タスク管理システム_画面・機能_W020_タスク作成・変更・削除_v1.0.xlsx</t>
-    <rPh sb="38" eb="40">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>センイズ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40_タスク管理システム_パーミッション表_v1.0.xlsx</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新: 2024/07/06 XXX</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -1020,19 +974,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>70_タスク管理システム_帳票一覧_v1.0.xlsx</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>チョウヒョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>80_タスク管理システム_バッチ処理一覧_v1.0.xlsx</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
@@ -1046,19 +987,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>90_タスク管理システム_外部インターフェース一覧_v1.0.xlsx</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※状況により多種多様</t>
     <rPh sb="1" eb="3">
       <t>ジョウキョウ</t>
@@ -1069,25 +997,161 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>50_タスク管理システム_帳票レイアウト_v1.0.xlsx</t>
+    <t>CRUDマトリックス表</t>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40_タスク管理システム_画面イメージ_v1.0.pptx</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
     <rPh sb="13" eb="15">
-      <t>チョウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60_タスク管理システム_外部インターフェース定義書_v1.0.xlsx</t>
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめファイル形式</t>
+    <rPh sb="8" eb="10">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PowerPoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※別ファイルで準備 or 40_タスク管理システム_画面イメージ_v1.0.pptx に含める など</t>
+    <rPh sb="1" eb="2">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MarkDown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drawio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PowerPoint, Excel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70_タスク管理システム_帳票レイアウト_v1.0.xlsx</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
     <rPh sb="13" eb="15">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90_タスク管理システム_外部インターフェース定義書_v1.0.xlsx</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>ガイブ</t>
     </rPh>
     <rPh sb="23" eb="26">
       <t>テイギショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用ID</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動シナリオID: BP-○○○</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワークセットID: WS-○○○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳票ID: RF-○○○</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッチ処理ID: BA-○○○</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部インターフェースID: IF-○○○</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能ID: FC-○○○</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体とワークセット別にファイルを準備する。
+10_タスク管理システム_画面一覧・遷移図_v1.0.xlsx
+20_タスク管理システム_画面・機能_WS-010_ユーザー登録_v1.0.xlsx
+20_タスク管理システム_画面・機能_WS-020_タスク作成・変更・削除_v1.0.xlsx</t>
+    <rPh sb="38" eb="40">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>センイズ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面ID: SC-○○○</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1148,7 +1212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1220,17 +1284,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1245,7 +1298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1297,9 +1350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1321,12 +1371,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289673</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4845365" cy="7909457"/>
+    <xdr:ext cx="4996881" cy="7489627"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="四角形: メモ 2">
@@ -1340,8 +1390,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12918700" y="745191"/>
-          <a:ext cx="4845365" cy="7909457"/>
+          <a:off x="16738934" y="741293"/>
+          <a:ext cx="4996881" cy="7489627"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -1372,7 +1422,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>成果物まとめ</a:t>
+            <a:t>成果物まとめ　☆</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>必要に応じて作成</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1666,7 +1724,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ラフイメージ</a:t>
+            <a:t>画面イメージ</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -1761,7 +1819,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
+            <a:t>・☆</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -1787,8 +1845,16 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・☆</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -1814,8 +1880,16 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・☆</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -1841,8 +1915,16 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・☆</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -1858,18 +1940,26 @@
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>帳票一覧</a:t>
+            <a:t>帳票レイアウト</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>_v1.0.xlsx</a:t>
+            <a:t>_v1.0.xlsx </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・☆</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -1895,29 +1985,78 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・☆</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>90_</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>タスク管理システム</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>_</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>外部インターフェース一覧</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>外部インターフェース定義書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>_v1.0.xlsx</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2009,7 +2148,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_W010_</a:t>
+            <a:t>_WS-010_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2044,7 +2183,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_W020_</a:t>
+            <a:t>_WS-020_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2129,86 +2268,6 @@
             </a:rPr>
             <a:t>_v1.0.xlsx</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>40_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>タスク管理システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>パーミッション表</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_v1.0.xlsx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2305,8 +2364,16 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・☆</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -3004,10 +3071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FC3F2E-6D7A-4738-BC6D-28346292A92E}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3016,26 +3083,28 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="64.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F2" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F3" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -3046,13 +3115,19 @@
         <v>24</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3063,13 +3138,17 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -3078,91 +3157,123 @@
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -3171,323 +3282,432 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
+        <v>107</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
+        <v>107</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
+        <v>107</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
+        <v>107</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
+        <v>107</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
+      <c r="F21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="D24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="2" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>10</v>
       </c>
@@ -3495,46 +3715,58 @@
         <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>13</v>
       </c>
@@ -3542,65 +3774,81 @@
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="H25:H29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3618,192 +3866,192 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E19" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E20" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E22" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="8"/>
       <c r="G23" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G24" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G25" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G26" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G27" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G28" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G29" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G30" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G31" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G32" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/water-fall/成果物一覧.xlsx
+++ b/water-fall/成果物一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FCFEDB-62A9-46E3-9843-B4CBD173912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE456A51-A5F9-4D86-BB33-8FD971013507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{ACEE0C1B-A7C6-4571-B800-9EDD5F868E9B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{ACEE0C1B-A7C6-4571-B800-9EDD5F868E9B}"/>
   </bookViews>
   <sheets>
     <sheet name="成果物一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="126">
   <si>
     <t>成果物一覧</t>
     <rPh sb="0" eb="3">
@@ -1152,6 +1152,32 @@
     <t>画面ID: SC-○○○</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆状態遷移図</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>センイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆ドメインモデル図　※ドメイン駆動設計では必要</t>
+    <rPh sb="8" eb="9">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>クドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3071,13 +3097,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FC3F2E-6D7A-4738-BC6D-28346292A92E}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -3089,22 +3113,22 @@
     <col min="8" max="8" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="H2" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="H3" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -3127,7 +3151,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3148,7 +3172,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -3167,7 +3191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
@@ -3184,7 +3208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
@@ -3201,7 +3225,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
@@ -3220,7 +3244,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
@@ -3237,7 +3261,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
@@ -3256,7 +3280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="2" t="s">
@@ -3273,7 +3297,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="5"/>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -3292,7 +3316,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
@@ -3309,7 +3333,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
@@ -3326,7 +3350,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
@@ -3343,7 +3367,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" s="13"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2" t="s">
@@ -3360,7 +3384,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B18" s="13"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
@@ -3377,7 +3401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" s="13"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
@@ -3394,7 +3418,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
@@ -3413,7 +3437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B21" s="13"/>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
@@ -3432,7 +3456,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
@@ -3451,7 +3475,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="2" t="s">
@@ -3468,7 +3492,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B24" s="12"/>
       <c r="D24" s="2" t="s">
         <v>87</v>
@@ -3484,7 +3508,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -3507,7 +3531,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2" t="s">
@@ -3522,7 +3546,7 @@
       </c>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
@@ -3537,7 +3561,7 @@
       </c>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="2" t="s">
@@ -3552,7 +3576,7 @@
       </c>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="2" t="s">
@@ -3569,7 +3593,7 @@
       </c>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="2" t="s">
@@ -3586,7 +3610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="2" t="s">
@@ -3603,7 +3627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="2" t="s">
@@ -3620,7 +3644,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" s="5"/>
       <c r="C33" s="4" t="s">
         <v>9</v>
@@ -3639,7 +3663,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
@@ -3656,7 +3680,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
@@ -3673,7 +3697,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
@@ -3690,9 +3714,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="2" t="s">
         <v>39</v>
       </c>
@@ -3707,18 +3731,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>10</v>
-      </c>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
@@ -3728,16 +3748,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
@@ -3747,102 +3765,142 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B40" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B41" s="5"/>
       <c r="C41" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B42" s="6"/>
       <c r="C42" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44" s="6"/>
       <c r="C44" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B46" s="6"/>
+      <c r="C46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3862,34 +3920,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C8" s="8" t="s">
         <v>64</v>
       </c>
@@ -3897,12 +3955,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C9" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C10" s="8" t="s">
         <v>64</v>
       </c>
@@ -3910,12 +3968,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" s="8" t="s">
         <v>64</v>
       </c>
@@ -3923,12 +3981,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" s="8" t="s">
         <v>64</v>
       </c>
@@ -3936,12 +3994,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" s="8" t="s">
         <v>64</v>
       </c>
@@ -3949,12 +4007,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C17" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C18" s="8" t="s">
         <v>66</v>
       </c>
@@ -3962,12 +4020,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E19" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E20" s="8" t="s">
         <v>64</v>
       </c>
@@ -3975,12 +4033,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E21" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E22" s="8" t="s">
         <v>64</v>
       </c>
@@ -3988,13 +4046,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E23" s="8"/>
       <c r="G23" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G24" s="8" t="s">
         <v>64</v>
       </c>
@@ -4002,12 +4060,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G25" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G26" s="8" t="s">
         <v>64</v>
       </c>
@@ -4015,12 +4073,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G27" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G28" s="8" t="s">
         <v>64</v>
       </c>
@@ -4028,12 +4086,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G29" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G30" s="8" t="s">
         <v>64</v>
       </c>
@@ -4041,12 +4099,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G31" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G32" s="8" t="s">
         <v>64</v>
       </c>

--- a/water-fall/成果物一覧.xlsx
+++ b/water-fall/成果物一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE456A51-A5F9-4D86-BB33-8FD971013507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDF218D-F55B-4EB4-8CB6-FDE7890B351C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{ACEE0C1B-A7C6-4571-B800-9EDD5F868E9B}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{ACEE0C1B-A7C6-4571-B800-9EDD5F868E9B}"/>
   </bookViews>
   <sheets>
     <sheet name="成果物一覧" sheetId="1" r:id="rId1"/>
@@ -1014,13 +1014,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>おすすめファイル形式</t>
-    <rPh sb="8" eb="10">
-      <t>ケイシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PowerPoint</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1127,28 +1120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全体とワークセット別にファイルを準備する。
-10_タスク管理システム_画面一覧・遷移図_v1.0.xlsx
-20_タスク管理システム_画面・機能_WS-010_ユーザー登録_v1.0.xlsx
-20_タスク管理システム_画面・機能_WS-020_タスク作成・変更・削除_v1.0.xlsx</t>
-    <rPh sb="38" eb="40">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>センイズ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面ID: SC-○○○</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -1178,6 +1149,26 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e.g. ファイル形式</t>
+    <rPh sb="9" eb="11">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体とワークセット別にファイルを準備する。
+10_タスク管理システム_画面一覧・遷移図_v1.0.xlsx
+20-010_タスク管理システム_画面・機能_ユーザー登録(WS-010)_v1.0.xlsx
+20-020_タスク管理システム_画面・機能_タスク作成・変更・削除(WS-020)_v1.0.xlsx</t>
+    <rPh sb="38" eb="40">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>センイズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1402,7 +1393,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4996881" cy="7489627"/>
+    <xdr:ext cx="5358070" cy="7736024"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="四角形: メモ 2">
@@ -1416,8 +1407,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16738934" y="741293"/>
-          <a:ext cx="4996881" cy="7489627"/>
+          <a:off x="16740709" y="748393"/>
+          <a:ext cx="5358070" cy="7736024"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -2158,7 +2149,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>20_</a:t>
+            <a:t>20-010_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2174,7 +2165,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_WS-010_</a:t>
+            <a:t>_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2182,7 +2173,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_v1.0.xlsx</a:t>
+            <a:t>(WS-010)_v1.0.xlsx</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2193,7 +2184,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>20_</a:t>
+            <a:t>20-020_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2209,7 +2200,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_WS-020_</a:t>
+            <a:t>_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2217,7 +2208,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_v1.0.xlsx</a:t>
+            <a:t>(WS-020)_v1.0.xlsx</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3101,7 +3092,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -3113,22 +3104,22 @@
     <col min="8" max="8" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H2" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H3" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -3139,10 +3130,10 @@
         <v>24</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>47</v>
@@ -3151,7 +3142,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3162,7 +3153,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
@@ -3172,7 +3163,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -3181,7 +3172,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
@@ -3191,14 +3182,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
@@ -3208,14 +3199,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
@@ -3225,17 +3216,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>52</v>
@@ -3244,14 +3235,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
@@ -3261,17 +3252,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>52</v>
@@ -3280,14 +3271,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
@@ -3297,7 +3288,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -3306,7 +3297,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
@@ -3316,14 +3307,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
@@ -3333,14 +3324,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
@@ -3350,14 +3341,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
@@ -3367,14 +3358,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
@@ -3384,14 +3375,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
@@ -3401,34 +3392,34 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>52</v>
@@ -3437,17 +3428,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>52</v>
@@ -3456,33 +3447,33 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
@@ -3492,13 +3483,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="D24" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
@@ -3508,7 +3499,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -3519,26 +3510,26 @@
         <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
@@ -3546,14 +3537,14 @@
       </c>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
@@ -3561,14 +3552,14 @@
       </c>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
@@ -3576,31 +3567,31 @@
       </c>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
@@ -3610,14 +3601,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
@@ -3627,24 +3618,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="4" t="s">
         <v>9</v>
@@ -3653,7 +3644,7 @@
         <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
@@ -3663,14 +3654,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
@@ -3680,14 +3671,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
@@ -3697,14 +3688,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
@@ -3714,14 +3705,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
@@ -3731,14 +3722,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
@@ -3748,14 +3739,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
@@ -3765,7 +3756,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>10</v>
       </c>
@@ -3776,7 +3767,7 @@
         <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
@@ -3786,7 +3777,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="3" t="s">
         <v>11</v>
@@ -3795,7 +3786,7 @@
         <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
@@ -3805,7 +3796,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="3" t="s">
         <v>12</v>
@@ -3814,7 +3805,7 @@
         <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
@@ -3824,7 +3815,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>13</v>
       </c>
@@ -3835,7 +3826,7 @@
         <v>42</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
@@ -3845,7 +3836,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="3" t="s">
         <v>15</v>
@@ -3854,7 +3845,7 @@
         <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
@@ -3864,7 +3855,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>43</v>
       </c>
@@ -3875,7 +3866,7 @@
         <v>44</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
@@ -3885,7 +3876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="3" t="s">
         <v>55</v>
@@ -3894,7 +3885,7 @@
         <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
@@ -3920,34 +3911,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>64</v>
       </c>
@@ -3955,12 +3946,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>64</v>
       </c>
@@ -3968,12 +3959,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>64</v>
       </c>
@@ -3981,12 +3972,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>64</v>
       </c>
@@ -3994,12 +3985,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
         <v>64</v>
       </c>
@@ -4007,12 +3998,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
         <v>66</v>
       </c>
@@ -4020,12 +4011,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E19" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E20" s="8" t="s">
         <v>64</v>
       </c>
@@ -4033,12 +4024,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E21" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E22" s="8" t="s">
         <v>64</v>
       </c>
@@ -4046,13 +4037,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="8"/>
       <c r="G23" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G24" s="8" t="s">
         <v>64</v>
       </c>
@@ -4060,12 +4051,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G25" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G26" s="8" t="s">
         <v>64</v>
       </c>
@@ -4073,12 +4064,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G27" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G28" s="8" t="s">
         <v>64</v>
       </c>
@@ -4086,12 +4077,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G29" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G30" s="8" t="s">
         <v>64</v>
       </c>
@@ -4099,12 +4090,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G31" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G32" s="8" t="s">
         <v>64</v>
       </c>
